--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H2">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>3113.66527501094</v>
+        <v>11.558843688216</v>
       </c>
       <c r="R2">
-        <v>28022.98747509846</v>
+        <v>104.029593193944</v>
       </c>
       <c r="S2">
-        <v>0.01191264210127866</v>
+        <v>0.0003219283934800636</v>
       </c>
       <c r="T2">
-        <v>0.01191264210127866</v>
+        <v>0.0003219283934800636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H3">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>254.4762391891798</v>
+        <v>34.553333752501</v>
       </c>
       <c r="R3">
-        <v>2290.286152702618</v>
+        <v>310.980003772509</v>
       </c>
       <c r="S3">
-        <v>0.0009736063747987266</v>
+        <v>0.0009623539797206085</v>
       </c>
       <c r="T3">
-        <v>0.0009736063747987267</v>
+        <v>0.0009623539797206085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H4">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>149.267272664188</v>
+        <v>20.267832891294</v>
       </c>
       <c r="R4">
-        <v>1343.405453977692</v>
+        <v>182.410496021646</v>
       </c>
       <c r="S4">
-        <v>0.0005710850202664124</v>
+        <v>0.0005644847406898112</v>
       </c>
       <c r="T4">
-        <v>0.0005710850202664125</v>
+        <v>0.0005644847406898112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>219045.1651818317</v>
+        <v>5988.711916189934</v>
       </c>
       <c r="R5">
-        <v>1971406.486636485</v>
+        <v>53898.40724570941</v>
       </c>
       <c r="S5">
-        <v>0.8380498307794045</v>
+        <v>0.1667931895436418</v>
       </c>
       <c r="T5">
-        <v>0.8380498307794046</v>
+        <v>0.1667931895436418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>17902.30642176184</v>
@@ -818,10 +818,10 @@
         <v>161120.7577958565</v>
       </c>
       <c r="S6">
-        <v>0.06849283733272263</v>
+        <v>0.4986018412742391</v>
       </c>
       <c r="T6">
-        <v>0.06849283733272264</v>
+        <v>0.4986018412742391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>10500.89573191315</v>
@@ -880,10 +880,10 @@
         <v>94508.06158721836</v>
       </c>
       <c r="S7">
-        <v>0.04017561348070289</v>
+        <v>0.2924632068969705</v>
       </c>
       <c r="T7">
-        <v>0.04017561348070289</v>
+        <v>0.2924632068969705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>30.939307</v>
       </c>
       <c r="H8">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>9214.292298633909</v>
+        <v>251.919470773432</v>
       </c>
       <c r="R8">
-        <v>82928.63068770518</v>
+        <v>2267.275236960889</v>
       </c>
       <c r="S8">
-        <v>0.03525316842858401</v>
+        <v>0.007016275390514936</v>
       </c>
       <c r="T8">
-        <v>0.03525316842858402</v>
+        <v>0.007016275390514936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>30.939307</v>
       </c>
       <c r="H9">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
-        <v>753.0733858147104</v>
+        <v>753.0733858147105</v>
       </c>
       <c r="R9">
         <v>6777.660472332394</v>
       </c>
       <c r="S9">
-        <v>0.00288120042742143</v>
+        <v>0.02097404479265344</v>
       </c>
       <c r="T9">
-        <v>0.002881200427421431</v>
+        <v>0.02097404479265344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>30.939307</v>
       </c>
       <c r="H10">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
         <v>441.727725836838</v>
@@ -1066,10 +1066,10 @@
         <v>3975.549532531542</v>
       </c>
       <c r="S10">
-        <v>0.001690016054820634</v>
+        <v>0.01230267498808985</v>
       </c>
       <c r="T10">
-        <v>0.001690016054820634</v>
+        <v>0.01230267498808985</v>
       </c>
     </row>
   </sheetData>
